--- a/Projects/CCRU_SAND/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -17,29 +17,29 @@
     <sheet name="IC - HoReCa ALL" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="138">
   <si>
     <t xml:space="preserve">Action</t>
   </si>
@@ -347,6 +347,33 @@
     <t xml:space="preserve">Juice Shelf Share</t>
   </si>
   <si>
+    <t xml:space="preserve">23,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant Based Drinks Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Warm Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Cold Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Shelf - Modern Trade</t>
+  </si>
+  <si>
     <t xml:space="preserve">CV_2019</t>
   </si>
   <si>
@@ -500,7 +527,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +542,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -529,12 +556,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,7 +603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,6 +656,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,7 +672,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,7 +692,47 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,7 +740,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -715,51 +796,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,7 +918,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C1:AH23" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C1:AH24" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="32">
     <tableColumn id="1" name="Channel"/>
     <tableColumn id="2" name="KPI Set Type"/>
@@ -880,53 +961,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:W8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="H4:H5 H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.12550607287449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.36437246963563"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.83400809716599"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6518218623482"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.417004048583"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.2955465587045"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.587044534413"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="11.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3603238866397"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="4" width="63.4291497975709"/>
-    <col collapsed="false" hidden="false" max="34" min="33" style="4" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="4" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="34" min="33" style="4" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1113,7 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>1</v>
@@ -1093,9 +1174,9 @@
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
-      <c r="AMJ2" s="1"/>
+      <c r="AMJ2" s="14"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2</v>
@@ -1156,10 +1237,10 @@
       </c>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
-      <c r="AMJ3" s="1"/>
+      <c r="AMJ3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+    <row r="4" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
@@ -1188,7 +1269,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
         <v>48</v>
@@ -1217,9 +1298,12 @@
       </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AMJ4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+    <row r="5" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
@@ -1252,24 +1336,24 @@
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="X5" s="11"/>
@@ -1289,9 +1373,12 @@
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AMJ5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+    <row r="6" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
@@ -1359,9 +1446,12 @@
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AMJ6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+    <row r="7" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
@@ -1429,9 +1519,12 @@
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AMJ7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+    <row r="8" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
@@ -1464,24 +1557,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="15" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="15" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="X8" s="11"/>
@@ -1501,9 +1594,12 @@
       </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AMJ8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+    <row r="9" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
@@ -1571,9 +1667,12 @@
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AMJ9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+    <row r="10" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
@@ -1641,9 +1740,12 @@
       </c>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AMJ10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+    <row r="11" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
@@ -1711,9 +1813,12 @@
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AMJ11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+    <row r="12" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
       <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
@@ -1781,9 +1886,12 @@
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AMJ12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+    <row r="13" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
@@ -1851,9 +1959,12 @@
       </c>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AMJ13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+    <row r="14" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="n">
         <v>13</v>
       </c>
@@ -1911,9 +2022,12 @@
       </c>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AMJ14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+    <row r="15" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="n">
         <v>14</v>
       </c>
@@ -1967,7 +2081,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="18"/>
+      <c r="AA15" s="20"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11" t="s">
         <v>39</v>
@@ -1981,9 +2095,12 @@
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AMJ15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+    <row r="16" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
@@ -2037,7 +2154,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="18"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11" t="s">
         <v>39</v>
@@ -2051,9 +2168,12 @@
       </c>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AMJ16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+    <row r="17" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
       <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
@@ -2103,7 +2223,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="18"/>
+      <c r="AA17" s="20"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11" t="s">
         <v>84</v>
@@ -2117,9 +2237,12 @@
       </c>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AMJ17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+    <row r="18" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
@@ -2177,9 +2300,12 @@
       </c>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AMJ18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+    <row r="19" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="n">
         <v>18</v>
       </c>
@@ -2205,7 +2331,7 @@
       <c r="J19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="11" t="n">
@@ -2247,9 +2373,12 @@
       </c>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AMJ19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+    <row r="20" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
       <c r="B20" s="10" t="n">
         <v>19</v>
       </c>
@@ -2275,7 +2404,7 @@
       <c r="J20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L20" s="11" t="n">
@@ -2317,9 +2446,12 @@
       </c>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AMJ20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+    <row r="21" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
       <c r="B21" s="10" t="n">
         <v>20</v>
       </c>
@@ -2345,7 +2477,7 @@
       <c r="J21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L21" s="11" t="n">
@@ -2387,9 +2519,12 @@
       </c>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AMJ21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+    <row r="22" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
       <c r="B22" s="10" t="n">
         <v>21</v>
       </c>
@@ -2415,7 +2550,7 @@
       <c r="J22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="11" t="n">
@@ -2457,9 +2592,12 @@
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AMJ22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+    <row r="23" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
       <c r="B23" s="10" t="n">
         <v>22</v>
       </c>
@@ -2485,7 +2623,7 @@
       <c r="J23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L23" s="11" t="n">
@@ -2527,6 +2665,243 @@
       </c>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AMJ23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+    </row>
+    <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2547,157 +2922,157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:W8"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.12550607287449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.36437246963563"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.83400809716599"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6518218623482"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.417004048583"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.2955465587045"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.587044534413"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="11.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="53.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3603238866397"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="63.4291497975709"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="34" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AJ1" s="21"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AJ1" s="33"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>35</v>
@@ -2751,13 +3126,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>35</v>
@@ -2811,13 +3186,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+    <row r="4" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>44</v>
@@ -2841,7 +3216,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -2866,16 +3241,16 @@
       <c r="AF4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+    <row r="5" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>44</v>
@@ -2903,24 +3278,24 @@
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="X5" s="11"/>
@@ -2938,16 +3313,16 @@
       <c r="AF5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+    <row r="6" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>44</v>
@@ -3008,16 +3383,16 @@
       <c r="AF6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+    <row r="7" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>44</v>
@@ -3078,16 +3453,16 @@
       <c r="AF7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="22"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="35"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+    <row r="8" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>44</v>
@@ -3115,24 +3490,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="15" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="15" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="X8" s="11"/>
@@ -3150,16 +3525,16 @@
       <c r="AF8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+    <row r="9" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>44</v>
@@ -3220,16 +3595,16 @@
       <c r="AF9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+    <row r="10" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>44</v>
@@ -3290,16 +3665,16 @@
       <c r="AF10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+    <row r="11" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>44</v>
@@ -3360,16 +3735,16 @@
       <c r="AF11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
     </row>
-    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+    <row r="12" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
       <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>44</v>
@@ -3430,16 +3805,16 @@
       <c r="AF12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+    <row r="13" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>44</v>
@@ -3500,16 +3875,16 @@
       <c r="AF13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+    <row r="14" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>44</v>
@@ -3558,16 +3933,16 @@
       <c r="AF14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+    <row r="15" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>44</v>
@@ -3616,7 +3991,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="18"/>
+      <c r="AA15" s="20"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11" t="s">
         <v>39</v>
@@ -3628,16 +4003,16 @@
       <c r="AF15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+    <row r="16" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>44</v>
@@ -3686,7 +4061,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="18"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11" t="s">
         <v>39</v>
@@ -3698,16 +4073,16 @@
       <c r="AF16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+    <row r="17" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
       <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>44</v>
@@ -3752,7 +4127,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="18"/>
+      <c r="AA17" s="20"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11" t="s">
         <v>84</v>
@@ -3764,16 +4139,16 @@
       <c r="AF17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+    <row r="18" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>44</v>
@@ -3822,16 +4197,16 @@
       <c r="AF18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
     </row>
-    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+    <row r="19" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>44</v>
@@ -3852,7 +4227,7 @@
       <c r="J19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="11" t="n">
@@ -3892,16 +4267,16 @@
       <c r="AF19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
     </row>
-    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+    <row r="20" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
       <c r="B20" s="10" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>44</v>
@@ -3922,7 +4297,7 @@
       <c r="J20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L20" s="11" t="n">
@@ -3962,16 +4337,16 @@
       <c r="AF20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
     </row>
-    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+    <row r="21" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
       <c r="B21" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>44</v>
@@ -3992,7 +4367,7 @@
       <c r="J21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L21" s="11" t="n">
@@ -4032,16 +4407,16 @@
       <c r="AF21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
     </row>
-    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+    <row r="22" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
       <c r="B22" s="10" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>44</v>
@@ -4062,7 +4437,7 @@
       <c r="J22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="11" t="n">
@@ -4102,16 +4477,16 @@
       <c r="AF22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+    <row r="23" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
       <c r="B23" s="10" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>44</v>
@@ -4132,7 +4507,7 @@
       <c r="J23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L23" s="11" t="n">
@@ -4172,8 +4547,215 @@
       <c r="AF23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+    </row>
+    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AMJ24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AMJ25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AMJ26" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4194,48 +4776,48 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="N8:W8 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="H4:H5 H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.6599190283401"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4335,178 +4917,178 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
         <v>0.333</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -5503,70 +6085,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -6563,70 +7145,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -7623,70 +8205,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="0"/>
@@ -8683,58 +9265,58 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
         <v>0.667</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="0"/>
@@ -9731,135 +10313,135 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="31" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="n">
+    <row r="9" s="46" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="26" t="n">
+      <c r="F9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="n">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="26" t="n">
+      <c r="L9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="M9" s="43"/>
+      <c r="N9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="26" t="s">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="26" t="n">
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AE9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AMJ9" s="32"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AMJ9" s="47"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="n">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9881,11 +10463,11 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="N8:W8 J11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="H4:H5 J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="25" min="3" style="2" width="8.78542510121457"/>
@@ -9896,7 +10478,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9996,178 +10578,178 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
         <v>0.333</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -11164,70 +11746,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -12224,70 +12806,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -13284,70 +13866,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="0"/>
@@ -14344,58 +14926,58 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
         <v>0.667</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="0"/>
@@ -15392,129 +15974,129 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="1" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="25" t="n">
+    <row r="9" s="1" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="n">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="n">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF10" s="0"/>
@@ -16511,74 +17093,74 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="31" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33"/>
-      <c r="B11" s="25" t="n">
+    <row r="11" s="46" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50"/>
+      <c r="B11" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="n">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="27" t="s">
+      <c r="J11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="26" t="n">
+      <c r="L11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="26" t="s">
+      <c r="M11" s="43"/>
+      <c r="N11" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="26" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="26" t="n">
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="AE11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AMJ11" s="32"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AMJ11" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16599,10 +17181,10 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="N8:W8 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="H4:H5 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
@@ -16611,36 +17193,36 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16740,623 +17322,623 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.54</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.46</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="O7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E8" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48"/>
+      <c r="B9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="G9" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="n">
+      <c r="E10" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="11" t="n">
+      <c r="M10" s="26"/>
+      <c r="N10" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="AE10" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48"/>
+      <c r="B11" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -17378,48 +17960,48 @@
   </sheetPr>
   <dimension ref="1:18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="1" sqref="N8:W8 N12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="1" sqref="H4:H5 N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.6599190283401"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17459,7 +18041,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -17513,184 +18095,184 @@
       <c r="AE1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.3825</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.6175</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="36" t="n">
         <v>0.6559</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -18687,70 +19269,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -19747,70 +20329,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -20807,70 +21389,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="4"/>
@@ -21867,121 +22449,121 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" s="1" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="36" t="n">
         <v>0.1376</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="11" t="s">
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="n">
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11" t="n">
+      <c r="H9" s="26"/>
+      <c r="I9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF9" s="0"/>
@@ -22978,591 +23560,591 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="37" t="n">
+    <row r="10" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="F10" s="38" t="n">
+      <c r="F10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="38" t="n">
+      <c r="G10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="n">
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="38" t="n">
+      <c r="L10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="38" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38" t="n">
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="38" t="s">
+      <c r="AE10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ10" s="41"/>
+      <c r="AMJ10" s="58"/>
     </row>
-    <row r="11" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="37" t="n">
+    <row r="11" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="F11" s="38" t="n">
+      <c r="F11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="38" t="n">
+      <c r="G11" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="n">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="38" t="n">
+      <c r="L11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="38" t="s">
+      <c r="M11" s="23"/>
+      <c r="N11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38" t="n">
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="38" t="s">
+      <c r="AE11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ11" s="41"/>
+      <c r="AMJ11" s="58"/>
     </row>
-    <row r="12" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="37" t="n">
+    <row r="12" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="n">
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38" t="n">
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AE12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ12" s="41"/>
+      <c r="AMJ12" s="58"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="28" t="n">
+    <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28"/>
+      <c r="B13" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11" t="n">
+      <c r="F13" s="26"/>
+      <c r="G13" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12" t="n">
+      <c r="L13" s="28"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="36" t="n">
         <v>0.2065</v>
       </c>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11" t="s">
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="11" t="s">
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="28" t="n">
+    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28"/>
+      <c r="B14" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="n">
+      <c r="H14" s="29"/>
+      <c r="I14" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11" t="s">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11" t="s">
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11" t="n">
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AE14" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="28" t="n">
+    <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28"/>
+      <c r="B15" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="n">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="s">
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11" t="s">
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11" t="n">
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AE15" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="28" t="n">
+    <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28"/>
+      <c r="B16" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="29" t="n">
         <v>21</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="n">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="29"/>
+      <c r="N16" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11" t="s">
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11" t="s">
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11" t="n">
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE16" s="11" t="s">
+      <c r="AE16" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="28" t="n">
+    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28"/>
+      <c r="B17" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="n">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11" t="s">
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11" t="s">
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11" t="n">
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AE17" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="28" t="n">
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28"/>
+      <c r="B18" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="29" t="n">
         <v>23</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="n">
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="11" t="n">
+      <c r="L18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11" t="s">
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11" t="s">
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11" t="n">
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AE18" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -23585,10 +24167,10 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="N8:W8 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="H4:H5 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
@@ -23597,36 +24179,36 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -23726,178 +24308,178 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
         <v>0.096</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -24894,70 +25476,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -25954,70 +26536,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -27014,70 +27596,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="0"/>
@@ -28074,58 +28656,58 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
         <v>0.904</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="0"/>
@@ -29122,66 +29704,66 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="n">
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="n">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF9" s="0"/>
@@ -30178,66 +30760,66 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10" t="n">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF10" s="0"/>
@@ -31234,66 +31816,66 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10" t="n">
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28"/>
+      <c r="B11" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="n">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="19" t="s">
+      <c r="J11" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="11" t="s">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11" t="n">
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF11" s="0"/>
@@ -32290,76 +32872,76 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="37" t="n">
+    <row r="12" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38" t="n">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="42" t="s">
+      <c r="J12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="38" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38" t="n">
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AE12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AMJ12" s="41"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AMJ12" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MT - Hyper-Super" sheetId="1" state="visible" r:id="rId2"/>
@@ -914,8 +914,8 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1249,6 +1249,8 @@
       </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
       <c r="AK4" s="0"/>
       <c r="AL4" s="0"/>
       <c r="AM4" s="0"/>
@@ -2236,6 +2238,7 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
@@ -2308,6 +2311,8 @@
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
       <c r="AK5" s="0"/>
       <c r="AL5" s="0"/>
       <c r="AM5" s="0"/>
@@ -3295,6 +3300,7 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
@@ -3365,6 +3371,8 @@
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
       <c r="AK6" s="0"/>
       <c r="AL6" s="0"/>
       <c r="AM6" s="0"/>
@@ -4352,6 +4360,7 @@
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
@@ -4422,6 +4431,8 @@
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
       <c r="AK7" s="0"/>
       <c r="AL7" s="0"/>
       <c r="AM7" s="0"/>
@@ -5409,6 +5420,7 @@
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
@@ -5481,6 +5493,8 @@
       </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
       <c r="AK8" s="0"/>
       <c r="AL8" s="0"/>
       <c r="AM8" s="0"/>
@@ -6468,6 +6482,7 @@
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
@@ -6538,6 +6553,8 @@
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
       <c r="AK9" s="0"/>
       <c r="AL9" s="0"/>
       <c r="AM9" s="0"/>
@@ -7525,6 +7542,7 @@
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
@@ -7595,6 +7613,8 @@
       </c>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
       <c r="AK10" s="0"/>
       <c r="AL10" s="0"/>
       <c r="AM10" s="0"/>
@@ -8582,6 +8602,7 @@
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
@@ -8652,6 +8673,8 @@
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
       <c r="AK11" s="0"/>
       <c r="AL11" s="0"/>
       <c r="AM11" s="0"/>
@@ -9639,6 +9662,7 @@
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
@@ -9709,6 +9733,8 @@
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
       <c r="AK12" s="0"/>
       <c r="AL12" s="0"/>
       <c r="AM12" s="0"/>
@@ -10696,6 +10722,7 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
@@ -10766,6 +10793,8 @@
       </c>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="0"/>
       <c r="AK13" s="0"/>
       <c r="AL13" s="0"/>
       <c r="AM13" s="0"/>
@@ -11753,6 +11782,7 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
@@ -11813,6 +11843,8 @@
       </c>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
       <c r="AK14" s="0"/>
       <c r="AL14" s="0"/>
       <c r="AM14" s="0"/>
@@ -12800,6 +12832,7 @@
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
@@ -12870,6 +12903,8 @@
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="0"/>
       <c r="AK15" s="0"/>
       <c r="AL15" s="0"/>
       <c r="AM15" s="0"/>
@@ -13857,6 +13892,7 @@
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
@@ -13927,6 +13963,8 @@
       </c>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="0"/>
       <c r="AK16" s="0"/>
       <c r="AL16" s="0"/>
       <c r="AM16" s="0"/>
@@ -14914,6 +14952,7 @@
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
@@ -14980,6 +15019,8 @@
       </c>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="0"/>
       <c r="AK17" s="0"/>
       <c r="AL17" s="0"/>
       <c r="AM17" s="0"/>
@@ -15967,6 +16008,7 @@
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
@@ -16027,6 +16069,8 @@
       </c>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
+      <c r="AI18" s="0"/>
+      <c r="AJ18" s="0"/>
       <c r="AK18" s="0"/>
       <c r="AL18" s="0"/>
       <c r="AM18" s="0"/>
@@ -17014,6 +17058,7 @@
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
@@ -17084,6 +17129,8 @@
       </c>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
+      <c r="AI19" s="0"/>
+      <c r="AJ19" s="0"/>
       <c r="AK19" s="0"/>
       <c r="AL19" s="0"/>
       <c r="AM19" s="0"/>
@@ -18071,6 +18118,7 @@
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
@@ -18141,6 +18189,8 @@
       </c>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
       <c r="AK20" s="0"/>
       <c r="AL20" s="0"/>
       <c r="AM20" s="0"/>
@@ -19128,6 +19178,7 @@
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
@@ -19198,6 +19249,8 @@
       </c>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
       <c r="AK21" s="0"/>
       <c r="AL21" s="0"/>
       <c r="AM21" s="0"/>
@@ -20185,6 +20238,7 @@
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
@@ -20255,6 +20309,8 @@
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
       <c r="AK22" s="0"/>
       <c r="AL22" s="0"/>
       <c r="AM22" s="0"/>
@@ -21242,6 +21298,7 @@
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
@@ -21312,6 +21369,8 @@
       </c>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
       <c r="AK23" s="0"/>
       <c r="AL23" s="0"/>
       <c r="AM23" s="0"/>
@@ -22299,6 +22358,7 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
@@ -22357,6 +22417,996 @@
       </c>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19"/>
@@ -22427,23 +23477,997 @@
       </c>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="CR25" s="0"/>
+      <c r="CS25" s="0"/>
+      <c r="CT25" s="0"/>
+      <c r="CU25" s="0"/>
+      <c r="CV25" s="0"/>
+      <c r="CW25" s="0"/>
+      <c r="CX25" s="0"/>
+      <c r="CY25" s="0"/>
+      <c r="CZ25" s="0"/>
+      <c r="DA25" s="0"/>
+      <c r="DB25" s="0"/>
+      <c r="DC25" s="0"/>
+      <c r="DD25" s="0"/>
+      <c r="DE25" s="0"/>
+      <c r="DF25" s="0"/>
+      <c r="DG25" s="0"/>
+      <c r="DH25" s="0"/>
+      <c r="DI25" s="0"/>
+      <c r="DJ25" s="0"/>
+      <c r="DK25" s="0"/>
+      <c r="DL25" s="0"/>
+      <c r="DM25" s="0"/>
+      <c r="DN25" s="0"/>
+      <c r="DO25" s="0"/>
+      <c r="DP25" s="0"/>
+      <c r="DQ25" s="0"/>
+      <c r="DR25" s="0"/>
+      <c r="DS25" s="0"/>
+      <c r="DT25" s="0"/>
+      <c r="DU25" s="0"/>
+      <c r="DV25" s="0"/>
+      <c r="DW25" s="0"/>
+      <c r="DX25" s="0"/>
+      <c r="DY25" s="0"/>
+      <c r="DZ25" s="0"/>
+      <c r="EA25" s="0"/>
+      <c r="EB25" s="0"/>
+      <c r="EC25" s="0"/>
+      <c r="ED25" s="0"/>
+      <c r="EE25" s="0"/>
+      <c r="EF25" s="0"/>
+      <c r="EG25" s="0"/>
+      <c r="EH25" s="0"/>
+      <c r="EI25" s="0"/>
+      <c r="EJ25" s="0"/>
+      <c r="EK25" s="0"/>
+      <c r="EL25" s="0"/>
+      <c r="EM25" s="0"/>
+      <c r="EN25" s="0"/>
+      <c r="EO25" s="0"/>
+      <c r="EP25" s="0"/>
+      <c r="EQ25" s="0"/>
+      <c r="ER25" s="0"/>
+      <c r="ES25" s="0"/>
+      <c r="ET25" s="0"/>
+      <c r="EU25" s="0"/>
+      <c r="EV25" s="0"/>
+      <c r="EW25" s="0"/>
+      <c r="EX25" s="0"/>
+      <c r="EY25" s="0"/>
+      <c r="EZ25" s="0"/>
+      <c r="FA25" s="0"/>
+      <c r="FB25" s="0"/>
+      <c r="FC25" s="0"/>
+      <c r="FD25" s="0"/>
+      <c r="FE25" s="0"/>
+      <c r="FF25" s="0"/>
+      <c r="FG25" s="0"/>
+      <c r="FH25" s="0"/>
+      <c r="FI25" s="0"/>
+      <c r="FJ25" s="0"/>
+      <c r="FK25" s="0"/>
+      <c r="FL25" s="0"/>
+      <c r="FM25" s="0"/>
+      <c r="FN25" s="0"/>
+      <c r="FO25" s="0"/>
+      <c r="FP25" s="0"/>
+      <c r="FQ25" s="0"/>
+      <c r="FR25" s="0"/>
+      <c r="FS25" s="0"/>
+      <c r="FT25" s="0"/>
+      <c r="FU25" s="0"/>
+      <c r="FV25" s="0"/>
+      <c r="FW25" s="0"/>
+      <c r="FX25" s="0"/>
+      <c r="FY25" s="0"/>
+      <c r="FZ25" s="0"/>
+      <c r="GA25" s="0"/>
+      <c r="GB25" s="0"/>
+      <c r="GC25" s="0"/>
+      <c r="GD25" s="0"/>
+      <c r="GE25" s="0"/>
+      <c r="GF25" s="0"/>
+      <c r="GG25" s="0"/>
+      <c r="GH25" s="0"/>
+      <c r="GI25" s="0"/>
+      <c r="GJ25" s="0"/>
+      <c r="GK25" s="0"/>
+      <c r="GL25" s="0"/>
+      <c r="GM25" s="0"/>
+      <c r="GN25" s="0"/>
+      <c r="GO25" s="0"/>
+      <c r="GP25" s="0"/>
+      <c r="GQ25" s="0"/>
+      <c r="GR25" s="0"/>
+      <c r="GS25" s="0"/>
+      <c r="GT25" s="0"/>
+      <c r="GU25" s="0"/>
+      <c r="GV25" s="0"/>
+      <c r="GW25" s="0"/>
+      <c r="GX25" s="0"/>
+      <c r="GY25" s="0"/>
+      <c r="GZ25" s="0"/>
+      <c r="HA25" s="0"/>
+      <c r="HB25" s="0"/>
+      <c r="HC25" s="0"/>
+      <c r="HD25" s="0"/>
+      <c r="HE25" s="0"/>
+      <c r="HF25" s="0"/>
+      <c r="HG25" s="0"/>
+      <c r="HH25" s="0"/>
+      <c r="HI25" s="0"/>
+      <c r="HJ25" s="0"/>
+      <c r="HK25" s="0"/>
+      <c r="HL25" s="0"/>
+      <c r="HM25" s="0"/>
+      <c r="HN25" s="0"/>
+      <c r="HO25" s="0"/>
+      <c r="HP25" s="0"/>
+      <c r="HQ25" s="0"/>
+      <c r="HR25" s="0"/>
+      <c r="HS25" s="0"/>
+      <c r="HT25" s="0"/>
+      <c r="HU25" s="0"/>
+      <c r="HV25" s="0"/>
+      <c r="HW25" s="0"/>
+      <c r="HX25" s="0"/>
+      <c r="HY25" s="0"/>
+      <c r="HZ25" s="0"/>
+      <c r="IA25" s="0"/>
+      <c r="IB25" s="0"/>
+      <c r="IC25" s="0"/>
+      <c r="ID25" s="0"/>
+      <c r="IE25" s="0"/>
+      <c r="IF25" s="0"/>
+      <c r="IG25" s="0"/>
+      <c r="IH25" s="0"/>
+      <c r="II25" s="0"/>
+      <c r="IJ25" s="0"/>
+      <c r="IK25" s="0"/>
+      <c r="IL25" s="0"/>
+      <c r="IM25" s="0"/>
+      <c r="IN25" s="0"/>
+      <c r="IO25" s="0"/>
+      <c r="IP25" s="0"/>
+      <c r="IQ25" s="0"/>
+      <c r="IR25" s="0"/>
+      <c r="IS25" s="0"/>
+      <c r="IT25" s="0"/>
+      <c r="IU25" s="0"/>
+      <c r="IV25" s="0"/>
+      <c r="IW25" s="0"/>
+      <c r="IX25" s="0"/>
+      <c r="IY25" s="0"/>
+      <c r="IZ25" s="0"/>
+      <c r="JA25" s="0"/>
+      <c r="JB25" s="0"/>
+      <c r="JC25" s="0"/>
+      <c r="JD25" s="0"/>
+      <c r="JE25" s="0"/>
+      <c r="JF25" s="0"/>
+      <c r="JG25" s="0"/>
+      <c r="JH25" s="0"/>
+      <c r="JI25" s="0"/>
+      <c r="JJ25" s="0"/>
+      <c r="JK25" s="0"/>
+      <c r="JL25" s="0"/>
+      <c r="JM25" s="0"/>
+      <c r="JN25" s="0"/>
+      <c r="JO25" s="0"/>
+      <c r="JP25" s="0"/>
+      <c r="JQ25" s="0"/>
+      <c r="JR25" s="0"/>
+      <c r="JS25" s="0"/>
+      <c r="JT25" s="0"/>
+      <c r="JU25" s="0"/>
+      <c r="JV25" s="0"/>
+      <c r="JW25" s="0"/>
+      <c r="JX25" s="0"/>
+      <c r="JY25" s="0"/>
+      <c r="JZ25" s="0"/>
+      <c r="KA25" s="0"/>
+      <c r="KB25" s="0"/>
+      <c r="KC25" s="0"/>
+      <c r="KD25" s="0"/>
+      <c r="KE25" s="0"/>
+      <c r="KF25" s="0"/>
+      <c r="KG25" s="0"/>
+      <c r="KH25" s="0"/>
+      <c r="KI25" s="0"/>
+      <c r="KJ25" s="0"/>
+      <c r="KK25" s="0"/>
+      <c r="KL25" s="0"/>
+      <c r="KM25" s="0"/>
+      <c r="KN25" s="0"/>
+      <c r="KO25" s="0"/>
+      <c r="KP25" s="0"/>
+      <c r="KQ25" s="0"/>
+      <c r="KR25" s="0"/>
+      <c r="KS25" s="0"/>
+      <c r="KT25" s="0"/>
+      <c r="KU25" s="0"/>
+      <c r="KV25" s="0"/>
+      <c r="KW25" s="0"/>
+      <c r="KX25" s="0"/>
+      <c r="KY25" s="0"/>
+      <c r="KZ25" s="0"/>
+      <c r="LA25" s="0"/>
+      <c r="LB25" s="0"/>
+      <c r="LC25" s="0"/>
+      <c r="LD25" s="0"/>
+      <c r="LE25" s="0"/>
+      <c r="LF25" s="0"/>
+      <c r="LG25" s="0"/>
+      <c r="LH25" s="0"/>
+      <c r="LI25" s="0"/>
+      <c r="LJ25" s="0"/>
+      <c r="LK25" s="0"/>
+      <c r="LL25" s="0"/>
+      <c r="LM25" s="0"/>
+      <c r="LN25" s="0"/>
+      <c r="LO25" s="0"/>
+      <c r="LP25" s="0"/>
+      <c r="LQ25" s="0"/>
+      <c r="LR25" s="0"/>
+      <c r="LS25" s="0"/>
+      <c r="LT25" s="0"/>
+      <c r="LU25" s="0"/>
+      <c r="LV25" s="0"/>
+      <c r="LW25" s="0"/>
+      <c r="LX25" s="0"/>
+      <c r="LY25" s="0"/>
+      <c r="LZ25" s="0"/>
+      <c r="MA25" s="0"/>
+      <c r="MB25" s="0"/>
+      <c r="MC25" s="0"/>
+      <c r="MD25" s="0"/>
+      <c r="ME25" s="0"/>
+      <c r="MF25" s="0"/>
+      <c r="MG25" s="0"/>
+      <c r="MH25" s="0"/>
+      <c r="MI25" s="0"/>
+      <c r="MJ25" s="0"/>
+      <c r="MK25" s="0"/>
+      <c r="ML25" s="0"/>
+      <c r="MM25" s="0"/>
+      <c r="MN25" s="0"/>
+      <c r="MO25" s="0"/>
+      <c r="MP25" s="0"/>
+      <c r="MQ25" s="0"/>
+      <c r="MR25" s="0"/>
+      <c r="MS25" s="0"/>
+      <c r="MT25" s="0"/>
+      <c r="MU25" s="0"/>
+      <c r="MV25" s="0"/>
+      <c r="MW25" s="0"/>
+      <c r="MX25" s="0"/>
+      <c r="MY25" s="0"/>
+      <c r="MZ25" s="0"/>
+      <c r="NA25" s="0"/>
+      <c r="NB25" s="0"/>
+      <c r="NC25" s="0"/>
+      <c r="ND25" s="0"/>
+      <c r="NE25" s="0"/>
+      <c r="NF25" s="0"/>
+      <c r="NG25" s="0"/>
+      <c r="NH25" s="0"/>
+      <c r="NI25" s="0"/>
+      <c r="NJ25" s="0"/>
+      <c r="NK25" s="0"/>
+      <c r="NL25" s="0"/>
+      <c r="NM25" s="0"/>
+      <c r="NN25" s="0"/>
+      <c r="NO25" s="0"/>
+      <c r="NP25" s="0"/>
+      <c r="NQ25" s="0"/>
+      <c r="NR25" s="0"/>
+      <c r="NS25" s="0"/>
+      <c r="NT25" s="0"/>
+      <c r="NU25" s="0"/>
+      <c r="NV25" s="0"/>
+      <c r="NW25" s="0"/>
+      <c r="NX25" s="0"/>
+      <c r="NY25" s="0"/>
+      <c r="NZ25" s="0"/>
+      <c r="OA25" s="0"/>
+      <c r="OB25" s="0"/>
+      <c r="OC25" s="0"/>
+      <c r="OD25" s="0"/>
+      <c r="OE25" s="0"/>
+      <c r="OF25" s="0"/>
+      <c r="OG25" s="0"/>
+      <c r="OH25" s="0"/>
+      <c r="OI25" s="0"/>
+      <c r="OJ25" s="0"/>
+      <c r="OK25" s="0"/>
+      <c r="OL25" s="0"/>
+      <c r="OM25" s="0"/>
+      <c r="ON25" s="0"/>
+      <c r="OO25" s="0"/>
+      <c r="OP25" s="0"/>
+      <c r="OQ25" s="0"/>
+      <c r="OR25" s="0"/>
+      <c r="OS25" s="0"/>
+      <c r="OT25" s="0"/>
+      <c r="OU25" s="0"/>
+      <c r="OV25" s="0"/>
+      <c r="OW25" s="0"/>
+      <c r="OX25" s="0"/>
+      <c r="OY25" s="0"/>
+      <c r="OZ25" s="0"/>
+      <c r="PA25" s="0"/>
+      <c r="PB25" s="0"/>
+      <c r="PC25" s="0"/>
+      <c r="PD25" s="0"/>
+      <c r="PE25" s="0"/>
+      <c r="PF25" s="0"/>
+      <c r="PG25" s="0"/>
+      <c r="PH25" s="0"/>
+      <c r="PI25" s="0"/>
+      <c r="PJ25" s="0"/>
+      <c r="PK25" s="0"/>
+      <c r="PL25" s="0"/>
+      <c r="PM25" s="0"/>
+      <c r="PN25" s="0"/>
+      <c r="PO25" s="0"/>
+      <c r="PP25" s="0"/>
+      <c r="PQ25" s="0"/>
+      <c r="PR25" s="0"/>
+      <c r="PS25" s="0"/>
+      <c r="PT25" s="0"/>
+      <c r="PU25" s="0"/>
+      <c r="PV25" s="0"/>
+      <c r="PW25" s="0"/>
+      <c r="PX25" s="0"/>
+      <c r="PY25" s="0"/>
+      <c r="PZ25" s="0"/>
+      <c r="QA25" s="0"/>
+      <c r="QB25" s="0"/>
+      <c r="QC25" s="0"/>
+      <c r="QD25" s="0"/>
+      <c r="QE25" s="0"/>
+      <c r="QF25" s="0"/>
+      <c r="QG25" s="0"/>
+      <c r="QH25" s="0"/>
+      <c r="QI25" s="0"/>
+      <c r="QJ25" s="0"/>
+      <c r="QK25" s="0"/>
+      <c r="QL25" s="0"/>
+      <c r="QM25" s="0"/>
+      <c r="QN25" s="0"/>
+      <c r="QO25" s="0"/>
+      <c r="QP25" s="0"/>
+      <c r="QQ25" s="0"/>
+      <c r="QR25" s="0"/>
+      <c r="QS25" s="0"/>
+      <c r="QT25" s="0"/>
+      <c r="QU25" s="0"/>
+      <c r="QV25" s="0"/>
+      <c r="QW25" s="0"/>
+      <c r="QX25" s="0"/>
+      <c r="QY25" s="0"/>
+      <c r="QZ25" s="0"/>
+      <c r="RA25" s="0"/>
+      <c r="RB25" s="0"/>
+      <c r="RC25" s="0"/>
+      <c r="RD25" s="0"/>
+      <c r="RE25" s="0"/>
+      <c r="RF25" s="0"/>
+      <c r="RG25" s="0"/>
+      <c r="RH25" s="0"/>
+      <c r="RI25" s="0"/>
+      <c r="RJ25" s="0"/>
+      <c r="RK25" s="0"/>
+      <c r="RL25" s="0"/>
+      <c r="RM25" s="0"/>
+      <c r="RN25" s="0"/>
+      <c r="RO25" s="0"/>
+      <c r="RP25" s="0"/>
+      <c r="RQ25" s="0"/>
+      <c r="RR25" s="0"/>
+      <c r="RS25" s="0"/>
+      <c r="RT25" s="0"/>
+      <c r="RU25" s="0"/>
+      <c r="RV25" s="0"/>
+      <c r="RW25" s="0"/>
+      <c r="RX25" s="0"/>
+      <c r="RY25" s="0"/>
+      <c r="RZ25" s="0"/>
+      <c r="SA25" s="0"/>
+      <c r="SB25" s="0"/>
+      <c r="SC25" s="0"/>
+      <c r="SD25" s="0"/>
+      <c r="SE25" s="0"/>
+      <c r="SF25" s="0"/>
+      <c r="SG25" s="0"/>
+      <c r="SH25" s="0"/>
+      <c r="SI25" s="0"/>
+      <c r="SJ25" s="0"/>
+      <c r="SK25" s="0"/>
+      <c r="SL25" s="0"/>
+      <c r="SM25" s="0"/>
+      <c r="SN25" s="0"/>
+      <c r="SO25" s="0"/>
+      <c r="SP25" s="0"/>
+      <c r="SQ25" s="0"/>
+      <c r="SR25" s="0"/>
+      <c r="SS25" s="0"/>
+      <c r="ST25" s="0"/>
+      <c r="SU25" s="0"/>
+      <c r="SV25" s="0"/>
+      <c r="SW25" s="0"/>
+      <c r="SX25" s="0"/>
+      <c r="SY25" s="0"/>
+      <c r="SZ25" s="0"/>
+      <c r="TA25" s="0"/>
+      <c r="TB25" s="0"/>
+      <c r="TC25" s="0"/>
+      <c r="TD25" s="0"/>
+      <c r="TE25" s="0"/>
+      <c r="TF25" s="0"/>
+      <c r="TG25" s="0"/>
+      <c r="TH25" s="0"/>
+      <c r="TI25" s="0"/>
+      <c r="TJ25" s="0"/>
+      <c r="TK25" s="0"/>
+      <c r="TL25" s="0"/>
+      <c r="TM25" s="0"/>
+      <c r="TN25" s="0"/>
+      <c r="TO25" s="0"/>
+      <c r="TP25" s="0"/>
+      <c r="TQ25" s="0"/>
+      <c r="TR25" s="0"/>
+      <c r="TS25" s="0"/>
+      <c r="TT25" s="0"/>
+      <c r="TU25" s="0"/>
+      <c r="TV25" s="0"/>
+      <c r="TW25" s="0"/>
+      <c r="TX25" s="0"/>
+      <c r="TY25" s="0"/>
+      <c r="TZ25" s="0"/>
+      <c r="UA25" s="0"/>
+      <c r="UB25" s="0"/>
+      <c r="UC25" s="0"/>
+      <c r="UD25" s="0"/>
+      <c r="UE25" s="0"/>
+      <c r="UF25" s="0"/>
+      <c r="UG25" s="0"/>
+      <c r="UH25" s="0"/>
+      <c r="UI25" s="0"/>
+      <c r="UJ25" s="0"/>
+      <c r="UK25" s="0"/>
+      <c r="UL25" s="0"/>
+      <c r="UM25" s="0"/>
+      <c r="UN25" s="0"/>
+      <c r="UO25" s="0"/>
+      <c r="UP25" s="0"/>
+      <c r="UQ25" s="0"/>
+      <c r="UR25" s="0"/>
+      <c r="US25" s="0"/>
+      <c r="UT25" s="0"/>
+      <c r="UU25" s="0"/>
+      <c r="UV25" s="0"/>
+      <c r="UW25" s="0"/>
+      <c r="UX25" s="0"/>
+      <c r="UY25" s="0"/>
+      <c r="UZ25" s="0"/>
+      <c r="VA25" s="0"/>
+      <c r="VB25" s="0"/>
+      <c r="VC25" s="0"/>
+      <c r="VD25" s="0"/>
+      <c r="VE25" s="0"/>
+      <c r="VF25" s="0"/>
+      <c r="VG25" s="0"/>
+      <c r="VH25" s="0"/>
+      <c r="VI25" s="0"/>
+      <c r="VJ25" s="0"/>
+      <c r="VK25" s="0"/>
+      <c r="VL25" s="0"/>
+      <c r="VM25" s="0"/>
+      <c r="VN25" s="0"/>
+      <c r="VO25" s="0"/>
+      <c r="VP25" s="0"/>
+      <c r="VQ25" s="0"/>
+      <c r="VR25" s="0"/>
+      <c r="VS25" s="0"/>
+      <c r="VT25" s="0"/>
+      <c r="VU25" s="0"/>
+      <c r="VV25" s="0"/>
+      <c r="VW25" s="0"/>
+      <c r="VX25" s="0"/>
+      <c r="VY25" s="0"/>
+      <c r="VZ25" s="0"/>
+      <c r="WA25" s="0"/>
+      <c r="WB25" s="0"/>
+      <c r="WC25" s="0"/>
+      <c r="WD25" s="0"/>
+      <c r="WE25" s="0"/>
+      <c r="WF25" s="0"/>
+      <c r="WG25" s="0"/>
+      <c r="WH25" s="0"/>
+      <c r="WI25" s="0"/>
+      <c r="WJ25" s="0"/>
+      <c r="WK25" s="0"/>
+      <c r="WL25" s="0"/>
+      <c r="WM25" s="0"/>
+      <c r="WN25" s="0"/>
+      <c r="WO25" s="0"/>
+      <c r="WP25" s="0"/>
+      <c r="WQ25" s="0"/>
+      <c r="WR25" s="0"/>
+      <c r="WS25" s="0"/>
+      <c r="WT25" s="0"/>
+      <c r="WU25" s="0"/>
+      <c r="WV25" s="0"/>
+      <c r="WW25" s="0"/>
+      <c r="WX25" s="0"/>
+      <c r="WY25" s="0"/>
+      <c r="WZ25" s="0"/>
+      <c r="XA25" s="0"/>
+      <c r="XB25" s="0"/>
+      <c r="XC25" s="0"/>
+      <c r="XD25" s="0"/>
+      <c r="XE25" s="0"/>
+      <c r="XF25" s="0"/>
+      <c r="XG25" s="0"/>
+      <c r="XH25" s="0"/>
+      <c r="XI25" s="0"/>
+      <c r="XJ25" s="0"/>
+      <c r="XK25" s="0"/>
+      <c r="XL25" s="0"/>
+      <c r="XM25" s="0"/>
+      <c r="XN25" s="0"/>
+      <c r="XO25" s="0"/>
+      <c r="XP25" s="0"/>
+      <c r="XQ25" s="0"/>
+      <c r="XR25" s="0"/>
+      <c r="XS25" s="0"/>
+      <c r="XT25" s="0"/>
+      <c r="XU25" s="0"/>
+      <c r="XV25" s="0"/>
+      <c r="XW25" s="0"/>
+      <c r="XX25" s="0"/>
+      <c r="XY25" s="0"/>
+      <c r="XZ25" s="0"/>
+      <c r="YA25" s="0"/>
+      <c r="YB25" s="0"/>
+      <c r="YC25" s="0"/>
+      <c r="YD25" s="0"/>
+      <c r="YE25" s="0"/>
+      <c r="YF25" s="0"/>
+      <c r="YG25" s="0"/>
+      <c r="YH25" s="0"/>
+      <c r="YI25" s="0"/>
+      <c r="YJ25" s="0"/>
+      <c r="YK25" s="0"/>
+      <c r="YL25" s="0"/>
+      <c r="YM25" s="0"/>
+      <c r="YN25" s="0"/>
+      <c r="YO25" s="0"/>
+      <c r="YP25" s="0"/>
+      <c r="YQ25" s="0"/>
+      <c r="YR25" s="0"/>
+      <c r="YS25" s="0"/>
+      <c r="YT25" s="0"/>
+      <c r="YU25" s="0"/>
+      <c r="YV25" s="0"/>
+      <c r="YW25" s="0"/>
+      <c r="YX25" s="0"/>
+      <c r="YY25" s="0"/>
+      <c r="YZ25" s="0"/>
+      <c r="ZA25" s="0"/>
+      <c r="ZB25" s="0"/>
+      <c r="ZC25" s="0"/>
+      <c r="ZD25" s="0"/>
+      <c r="ZE25" s="0"/>
+      <c r="ZF25" s="0"/>
+      <c r="ZG25" s="0"/>
+      <c r="ZH25" s="0"/>
+      <c r="ZI25" s="0"/>
+      <c r="ZJ25" s="0"/>
+      <c r="ZK25" s="0"/>
+      <c r="ZL25" s="0"/>
+      <c r="ZM25" s="0"/>
+      <c r="ZN25" s="0"/>
+      <c r="ZO25" s="0"/>
+      <c r="ZP25" s="0"/>
+      <c r="ZQ25" s="0"/>
+      <c r="ZR25" s="0"/>
+      <c r="ZS25" s="0"/>
+      <c r="ZT25" s="0"/>
+      <c r="ZU25" s="0"/>
+      <c r="ZV25" s="0"/>
+      <c r="ZW25" s="0"/>
+      <c r="ZX25" s="0"/>
+      <c r="ZY25" s="0"/>
+      <c r="ZZ25" s="0"/>
+      <c r="AAA25" s="0"/>
+      <c r="AAB25" s="0"/>
+      <c r="AAC25" s="0"/>
+      <c r="AAD25" s="0"/>
+      <c r="AAE25" s="0"/>
+      <c r="AAF25" s="0"/>
+      <c r="AAG25" s="0"/>
+      <c r="AAH25" s="0"/>
+      <c r="AAI25" s="0"/>
+      <c r="AAJ25" s="0"/>
+      <c r="AAK25" s="0"/>
+      <c r="AAL25" s="0"/>
+      <c r="AAM25" s="0"/>
+      <c r="AAN25" s="0"/>
+      <c r="AAO25" s="0"/>
+      <c r="AAP25" s="0"/>
+      <c r="AAQ25" s="0"/>
+      <c r="AAR25" s="0"/>
+      <c r="AAS25" s="0"/>
+      <c r="AAT25" s="0"/>
+      <c r="AAU25" s="0"/>
+      <c r="AAV25" s="0"/>
+      <c r="AAW25" s="0"/>
+      <c r="AAX25" s="0"/>
+      <c r="AAY25" s="0"/>
+      <c r="AAZ25" s="0"/>
+      <c r="ABA25" s="0"/>
+      <c r="ABB25" s="0"/>
+      <c r="ABC25" s="0"/>
+      <c r="ABD25" s="0"/>
+      <c r="ABE25" s="0"/>
+      <c r="ABF25" s="0"/>
+      <c r="ABG25" s="0"/>
+      <c r="ABH25" s="0"/>
+      <c r="ABI25" s="0"/>
+      <c r="ABJ25" s="0"/>
+      <c r="ABK25" s="0"/>
+      <c r="ABL25" s="0"/>
+      <c r="ABM25" s="0"/>
+      <c r="ABN25" s="0"/>
+      <c r="ABO25" s="0"/>
+      <c r="ABP25" s="0"/>
+      <c r="ABQ25" s="0"/>
+      <c r="ABR25" s="0"/>
+      <c r="ABS25" s="0"/>
+      <c r="ABT25" s="0"/>
+      <c r="ABU25" s="0"/>
+      <c r="ABV25" s="0"/>
+      <c r="ABW25" s="0"/>
+      <c r="ABX25" s="0"/>
+      <c r="ABY25" s="0"/>
+      <c r="ABZ25" s="0"/>
+      <c r="ACA25" s="0"/>
+      <c r="ACB25" s="0"/>
+      <c r="ACC25" s="0"/>
+      <c r="ACD25" s="0"/>
+      <c r="ACE25" s="0"/>
+      <c r="ACF25" s="0"/>
+      <c r="ACG25" s="0"/>
+      <c r="ACH25" s="0"/>
+      <c r="ACI25" s="0"/>
+      <c r="ACJ25" s="0"/>
+      <c r="ACK25" s="0"/>
+      <c r="ACL25" s="0"/>
+      <c r="ACM25" s="0"/>
+      <c r="ACN25" s="0"/>
+      <c r="ACO25" s="0"/>
+      <c r="ACP25" s="0"/>
+      <c r="ACQ25" s="0"/>
+      <c r="ACR25" s="0"/>
+      <c r="ACS25" s="0"/>
+      <c r="ACT25" s="0"/>
+      <c r="ACU25" s="0"/>
+      <c r="ACV25" s="0"/>
+      <c r="ACW25" s="0"/>
+      <c r="ACX25" s="0"/>
+      <c r="ACY25" s="0"/>
+      <c r="ACZ25" s="0"/>
+      <c r="ADA25" s="0"/>
+      <c r="ADB25" s="0"/>
+      <c r="ADC25" s="0"/>
+      <c r="ADD25" s="0"/>
+      <c r="ADE25" s="0"/>
+      <c r="ADF25" s="0"/>
+      <c r="ADG25" s="0"/>
+      <c r="ADH25" s="0"/>
+      <c r="ADI25" s="0"/>
+      <c r="ADJ25" s="0"/>
+      <c r="ADK25" s="0"/>
+      <c r="ADL25" s="0"/>
+      <c r="ADM25" s="0"/>
+      <c r="ADN25" s="0"/>
+      <c r="ADO25" s="0"/>
+      <c r="ADP25" s="0"/>
+      <c r="ADQ25" s="0"/>
+      <c r="ADR25" s="0"/>
+      <c r="ADS25" s="0"/>
+      <c r="ADT25" s="0"/>
+      <c r="ADU25" s="0"/>
+      <c r="ADV25" s="0"/>
+      <c r="ADW25" s="0"/>
+      <c r="ADX25" s="0"/>
+      <c r="ADY25" s="0"/>
+      <c r="ADZ25" s="0"/>
+      <c r="AEA25" s="0"/>
+      <c r="AEB25" s="0"/>
+      <c r="AEC25" s="0"/>
+      <c r="AED25" s="0"/>
+      <c r="AEE25" s="0"/>
+      <c r="AEF25" s="0"/>
+      <c r="AEG25" s="0"/>
+      <c r="AEH25" s="0"/>
+      <c r="AEI25" s="0"/>
+      <c r="AEJ25" s="0"/>
+      <c r="AEK25" s="0"/>
+      <c r="AEL25" s="0"/>
+      <c r="AEM25" s="0"/>
+      <c r="AEN25" s="0"/>
+      <c r="AEO25" s="0"/>
+      <c r="AEP25" s="0"/>
+      <c r="AEQ25" s="0"/>
+      <c r="AER25" s="0"/>
+      <c r="AES25" s="0"/>
+      <c r="AET25" s="0"/>
+      <c r="AEU25" s="0"/>
+      <c r="AEV25" s="0"/>
+      <c r="AEW25" s="0"/>
+      <c r="AEX25" s="0"/>
+      <c r="AEY25" s="0"/>
+      <c r="AEZ25" s="0"/>
+      <c r="AFA25" s="0"/>
+      <c r="AFB25" s="0"/>
+      <c r="AFC25" s="0"/>
+      <c r="AFD25" s="0"/>
+      <c r="AFE25" s="0"/>
+      <c r="AFF25" s="0"/>
+      <c r="AFG25" s="0"/>
+      <c r="AFH25" s="0"/>
+      <c r="AFI25" s="0"/>
+      <c r="AFJ25" s="0"/>
+      <c r="AFK25" s="0"/>
+      <c r="AFL25" s="0"/>
+      <c r="AFM25" s="0"/>
+      <c r="AFN25" s="0"/>
+      <c r="AFO25" s="0"/>
+      <c r="AFP25" s="0"/>
+      <c r="AFQ25" s="0"/>
+      <c r="AFR25" s="0"/>
+      <c r="AFS25" s="0"/>
+      <c r="AFT25" s="0"/>
+      <c r="AFU25" s="0"/>
+      <c r="AFV25" s="0"/>
+      <c r="AFW25" s="0"/>
+      <c r="AFX25" s="0"/>
+      <c r="AFY25" s="0"/>
+      <c r="AFZ25" s="0"/>
+      <c r="AGA25" s="0"/>
+      <c r="AGB25" s="0"/>
+      <c r="AGC25" s="0"/>
+      <c r="AGD25" s="0"/>
+      <c r="AGE25" s="0"/>
+      <c r="AGF25" s="0"/>
+      <c r="AGG25" s="0"/>
+      <c r="AGH25" s="0"/>
+      <c r="AGI25" s="0"/>
+      <c r="AGJ25" s="0"/>
+      <c r="AGK25" s="0"/>
+      <c r="AGL25" s="0"/>
+      <c r="AGM25" s="0"/>
+      <c r="AGN25" s="0"/>
+      <c r="AGO25" s="0"/>
+      <c r="AGP25" s="0"/>
+      <c r="AGQ25" s="0"/>
+      <c r="AGR25" s="0"/>
+      <c r="AGS25" s="0"/>
+      <c r="AGT25" s="0"/>
+      <c r="AGU25" s="0"/>
+      <c r="AGV25" s="0"/>
+      <c r="AGW25" s="0"/>
+      <c r="AGX25" s="0"/>
+      <c r="AGY25" s="0"/>
+      <c r="AGZ25" s="0"/>
+      <c r="AHA25" s="0"/>
+      <c r="AHB25" s="0"/>
+      <c r="AHC25" s="0"/>
+      <c r="AHD25" s="0"/>
+      <c r="AHE25" s="0"/>
+      <c r="AHF25" s="0"/>
+      <c r="AHG25" s="0"/>
+      <c r="AHH25" s="0"/>
+      <c r="AHI25" s="0"/>
+      <c r="AHJ25" s="0"/>
+      <c r="AHK25" s="0"/>
+      <c r="AHL25" s="0"/>
+      <c r="AHM25" s="0"/>
+      <c r="AHN25" s="0"/>
+      <c r="AHO25" s="0"/>
+      <c r="AHP25" s="0"/>
+      <c r="AHQ25" s="0"/>
+      <c r="AHR25" s="0"/>
+      <c r="AHS25" s="0"/>
+      <c r="AHT25" s="0"/>
+      <c r="AHU25" s="0"/>
+      <c r="AHV25" s="0"/>
+      <c r="AHW25" s="0"/>
+      <c r="AHX25" s="0"/>
+      <c r="AHY25" s="0"/>
+      <c r="AHZ25" s="0"/>
+      <c r="AIA25" s="0"/>
+      <c r="AIB25" s="0"/>
+      <c r="AIC25" s="0"/>
+      <c r="AID25" s="0"/>
+      <c r="AIE25" s="0"/>
+      <c r="AIF25" s="0"/>
+      <c r="AIG25" s="0"/>
+      <c r="AIH25" s="0"/>
+      <c r="AII25" s="0"/>
+      <c r="AIJ25" s="0"/>
+      <c r="AIK25" s="0"/>
+      <c r="AIL25" s="0"/>
+      <c r="AIM25" s="0"/>
+      <c r="AIN25" s="0"/>
+      <c r="AIO25" s="0"/>
+      <c r="AIP25" s="0"/>
+      <c r="AIQ25" s="0"/>
+      <c r="AIR25" s="0"/>
+      <c r="AIS25" s="0"/>
+      <c r="AIT25" s="0"/>
+      <c r="AIU25" s="0"/>
+      <c r="AIV25" s="0"/>
+      <c r="AIW25" s="0"/>
+      <c r="AIX25" s="0"/>
+      <c r="AIY25" s="0"/>
+      <c r="AIZ25" s="0"/>
+      <c r="AJA25" s="0"/>
+      <c r="AJB25" s="0"/>
+      <c r="AJC25" s="0"/>
+      <c r="AJD25" s="0"/>
+      <c r="AJE25" s="0"/>
+      <c r="AJF25" s="0"/>
+      <c r="AJG25" s="0"/>
+      <c r="AJH25" s="0"/>
+      <c r="AJI25" s="0"/>
+      <c r="AJJ25" s="0"/>
+      <c r="AJK25" s="0"/>
+      <c r="AJL25" s="0"/>
+      <c r="AJM25" s="0"/>
+      <c r="AJN25" s="0"/>
+      <c r="AJO25" s="0"/>
+      <c r="AJP25" s="0"/>
+      <c r="AJQ25" s="0"/>
+      <c r="AJR25" s="0"/>
+      <c r="AJS25" s="0"/>
+      <c r="AJT25" s="0"/>
+      <c r="AJU25" s="0"/>
+      <c r="AJV25" s="0"/>
+      <c r="AJW25" s="0"/>
+      <c r="AJX25" s="0"/>
+      <c r="AJY25" s="0"/>
+      <c r="AJZ25" s="0"/>
+      <c r="AKA25" s="0"/>
+      <c r="AKB25" s="0"/>
+      <c r="AKC25" s="0"/>
+      <c r="AKD25" s="0"/>
+      <c r="AKE25" s="0"/>
+      <c r="AKF25" s="0"/>
+      <c r="AKG25" s="0"/>
+      <c r="AKH25" s="0"/>
+      <c r="AKI25" s="0"/>
+      <c r="AKJ25" s="0"/>
+      <c r="AKK25" s="0"/>
+      <c r="AKL25" s="0"/>
+      <c r="AKM25" s="0"/>
+      <c r="AKN25" s="0"/>
+      <c r="AKO25" s="0"/>
+      <c r="AKP25" s="0"/>
+      <c r="AKQ25" s="0"/>
+      <c r="AKR25" s="0"/>
+      <c r="AKS25" s="0"/>
+      <c r="AKT25" s="0"/>
+      <c r="AKU25" s="0"/>
+      <c r="AKV25" s="0"/>
+      <c r="AKW25" s="0"/>
+      <c r="AKX25" s="0"/>
+      <c r="AKY25" s="0"/>
+      <c r="AKZ25" s="0"/>
+      <c r="ALA25" s="0"/>
+      <c r="ALB25" s="0"/>
+      <c r="ALC25" s="0"/>
+      <c r="ALD25" s="0"/>
+      <c r="ALE25" s="0"/>
+      <c r="ALF25" s="0"/>
+      <c r="ALG25" s="0"/>
+      <c r="ALH25" s="0"/>
+      <c r="ALI25" s="0"/>
+      <c r="ALJ25" s="0"/>
+      <c r="ALK25" s="0"/>
+      <c r="ALL25" s="0"/>
+      <c r="ALM25" s="0"/>
+      <c r="ALN25" s="0"/>
+      <c r="ALO25" s="0"/>
+      <c r="ALP25" s="0"/>
+      <c r="ALQ25" s="0"/>
+      <c r="ALR25" s="0"/>
+      <c r="ALS25" s="0"/>
+      <c r="ALT25" s="0"/>
+      <c r="ALU25" s="0"/>
+      <c r="ALV25" s="0"/>
+      <c r="ALW25" s="0"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -22479,8 +24503,8 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -46013,6 +48037,8 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="1"/>
     </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
